--- a/inputs/data_raw/Data_BART_Decrements_ES2017.xlsx
+++ b/inputs/data_raw/Data_BART_Decrements_ES2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF009FF-2BFC-4624-BE80-0A68103D290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220B63E-1D7C-4829-9F14-83837D088D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servRet_misc_classic" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="mortality_postRet_15yProj" sheetId="22" r:id="rId13"/>
     <sheet name="mortality_postRet_noProj" sheetId="24" r:id="rId14"/>
     <sheet name="salScale_merit_misc" sheetId="28" r:id="rId15"/>
-    <sheet name="salScale_merit_safety" sheetId="29" r:id="rId16"/>
+    <sheet name="salScale_merit_sfty" sheetId="29" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
   <si>
     <t>TOC</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t xml:space="preserve">Source: BART misc AV2019 ep 58, 2.5%@57 </t>
+  </si>
+  <si>
+    <t>qxt.refund</t>
+  </si>
+  <si>
+    <t>qxt.vest</t>
   </si>
 </sst>
 </file>
@@ -682,12 +688,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,6 +726,12 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1776,7 +1782,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1859,22 +1865,22 @@
       <c r="C8" s="2">
         <v>50</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="52">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="52">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="52">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -1882,22 +1888,22 @@
       <c r="C9" s="2">
         <v>51</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>1.6E-2</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <v>0.02</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>2.3E-2</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="53">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
@@ -1905,22 +1911,22 @@
       <c r="C10" s="2">
         <v>52</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="53">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="53">
         <v>0.02</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="53">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>0.03</v>
       </c>
     </row>
@@ -1928,22 +1934,22 @@
       <c r="C11" s="2">
         <v>53</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="53">
         <v>1.6E-2</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="53">
         <v>0.02</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>2.4E-2</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="53">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <v>3.1E-2</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -1951,22 +1957,22 @@
       <c r="C12" s="2">
         <v>54</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="53">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="53">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="53">
         <v>0.03</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -1974,22 +1980,22 @@
       <c r="C13" s="2">
         <v>55</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>0.04</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="53">
         <v>0.04</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="53">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>0.109</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="53">
         <v>0.154</v>
       </c>
     </row>
@@ -1997,22 +2003,22 @@
       <c r="C14" s="2">
         <v>56</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="53">
         <v>0.05</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>0.107</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="53">
         <v>0.13800000000000001</v>
       </c>
     </row>
@@ -2020,22 +2026,22 @@
       <c r="C15" s="2">
         <v>57</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="53">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="53">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="53">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="53">
         <v>0.127</v>
       </c>
     </row>
@@ -2043,22 +2049,22 @@
       <c r="C16" s="2">
         <v>58</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="53">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="53">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="53">
         <v>6.2E-2</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="53">
         <v>0.09</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="53">
         <v>0.106</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="53">
         <v>0.13100000000000001</v>
       </c>
     </row>
@@ -2066,22 +2072,22 @@
       <c r="C17" s="2">
         <v>59</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="53">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="53">
         <v>5.5E-2</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="53">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="53">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>0.115</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <v>0.14399999999999999</v>
       </c>
     </row>
@@ -2089,22 +2095,22 @@
       <c r="C18" s="2">
         <v>60</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="53">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="53">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <v>0.126</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <v>0.14299999999999999</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="53">
         <v>0.16900000000000001</v>
       </c>
     </row>
@@ -2112,22 +2118,22 @@
       <c r="C19" s="2">
         <v>61</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="53">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="53">
         <v>0.111</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="53">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <v>0.16300000000000001</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>0.189</v>
       </c>
     </row>
@@ -2135,22 +2141,22 @@
       <c r="C20" s="2">
         <v>62</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="53">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="53">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>0.19</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <v>0.21299999999999999</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="53">
         <v>0.247</v>
       </c>
     </row>
@@ -2158,22 +2164,22 @@
       <c r="C21" s="2">
         <v>63</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="53">
         <v>0.13</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="53">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="53">
         <v>0.17399999999999999</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="53">
         <v>0.21199999999999999</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="53">
         <v>0.249</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="53">
         <v>0.28499999999999998</v>
       </c>
     </row>
@@ -2181,22 +2187,22 @@
       <c r="C22" s="2">
         <v>64</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="53">
         <v>0.113</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="53">
         <v>0.129</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="53">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="53">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="53">
         <v>0.223</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="53">
         <v>0.249</v>
       </c>
     </row>
@@ -2204,22 +2210,22 @@
       <c r="C23" s="2">
         <v>65</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="53">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="53">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="53">
         <v>0.20100000000000001</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="53">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="53">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="53">
         <v>0.28899999999999998</v>
       </c>
     </row>
@@ -2227,22 +2233,22 @@
       <c r="C24" s="2">
         <v>66</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="53">
         <v>0.17</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="53">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="53">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="53">
         <v>0.25800000000000001</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="53">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="53">
         <v>0.30599999999999999</v>
       </c>
     </row>
@@ -2250,22 +2256,22 @@
       <c r="C25" s="2">
         <v>67</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="53">
         <v>0.25</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="53">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="53">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="53">
         <v>0.25</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="53">
         <v>0.25700000000000001</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="53">
         <v>0.28699999999999998</v>
       </c>
     </row>
@@ -2273,22 +2279,22 @@
       <c r="C26" s="2">
         <v>68</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="53">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="53">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="53">
         <v>0.193</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="53">
         <v>0.215</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="53">
         <v>0.24</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="53">
         <v>0.26200000000000001</v>
       </c>
     </row>
@@ -2296,22 +2302,22 @@
       <c r="C27" s="2">
         <v>69</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="53">
         <v>0.2</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="53">
         <v>0.18</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="53">
         <v>0.18</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="53">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="53">
         <v>0.22800000000000001</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="53">
         <v>0.246</v>
       </c>
     </row>
@@ -2319,22 +2325,22 @@
       <c r="C28" s="2">
         <v>70</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="54">
         <v>0.15</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="54">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="54">
         <v>0.192</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="54">
         <v>0.23899999999999999</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="54">
         <v>0.30399999999999999</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="54">
         <v>0.33</v>
       </c>
     </row>
@@ -2352,7 +2358,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2399,62 +2405,62 @@
         <v>23</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>5</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <v>10</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>1.26E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>15</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>20</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <v>25</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>30</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>35</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2488,7 +2494,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2541,7 +2547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36">
+    <row r="6" spans="1:7">
       <c r="C6" s="32" t="s">
         <v>21</v>
       </c>
@@ -2708,12 +2714,14 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="5" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2759,7 +2767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24">
+    <row r="6" spans="1:7">
       <c r="C6" s="32" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +2934,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4102,156 +4110,156 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="50">
+      <c r="C9" s="48">
         <v>0</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="49">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="50">
+      <c r="C10" s="48">
         <v>1</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="49">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="50">
+      <c r="C11" s="48">
         <v>2</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="49">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="49">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="50">
+      <c r="C12" s="48">
         <v>3</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="49">
         <v>4.7E-2</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="49">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="49">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="50">
+      <c r="C13" s="48">
         <v>4</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="49">
         <v>0.04</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="49">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="49">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="50">
+      <c r="C14" s="48">
         <v>5</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="49">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="49">
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="50">
+      <c r="C15" s="48">
         <v>10</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="49">
         <v>1.6E-2</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="49">
         <v>1.35E-2</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="49">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="50">
+      <c r="C16" s="48">
         <v>15</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="49">
         <v>1.2E-2</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="49">
         <v>0.01</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="49">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="52">
+      <c r="C17" s="50">
         <v>20</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="51">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="51">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="51">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="52">
+      <c r="C18" s="50">
         <v>25</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="51">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="51">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="52">
+      <c r="C19" s="50">
         <v>30</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="51">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="51">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="51">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -4268,8 +4276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C665C-1263-40FD-A00E-8BB2CA999BC3}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4343,156 +4351,156 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="46">
+      <c r="C9" s="44">
         <v>0</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <v>0.1027</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="45">
         <v>0.1027</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="45">
         <v>0.1027</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <v>2</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <v>6.2799999999999995E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>3</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="47">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="47">
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>4</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="47">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="47">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="47">
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <v>5</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="47">
         <v>0.03</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="47">
         <v>0.03</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="47">
         <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="48">
+      <c r="C15" s="46">
         <v>10</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="47">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="47">
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="48">
+      <c r="C16" s="46">
         <v>15</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="47">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="48">
+      <c r="C17" s="46">
         <v>20</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <v>1.55E-2</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="47">
         <v>1.55E-2</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <v>1.55E-2</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="48">
+      <c r="C18" s="46">
         <v>25</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="47">
         <v>1.6E-2</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="47">
         <v>1.6E-2</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="47">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="48">
+      <c r="C19" s="46">
         <v>30</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="47">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="47">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="47">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
@@ -4510,7 +4518,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4593,22 +4601,22 @@
       <c r="C8" s="4">
         <v>50</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <v>0</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <v>0</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>0</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="52">
         <v>0</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="52">
         <v>0</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4616,22 +4624,22 @@
       <c r="C9" s="4">
         <v>51</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <v>0</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>0</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <v>0</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>0</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="53">
         <v>0</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="53">
         <v>0</v>
       </c>
     </row>
@@ -4639,22 +4647,22 @@
       <c r="C10" s="4">
         <v>52</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="53">
         <v>1.2E-2</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="53">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="53">
         <v>1.9E-2</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -4662,22 +4670,22 @@
       <c r="C11" s="4">
         <v>53</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="53">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="53">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>1.4E-2</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="53">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="53">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -4685,22 +4693,22 @@
       <c r="C12" s="4">
         <v>54</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="53">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="53">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="53">
         <v>1.9E-2</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <v>2.3E-2</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
@@ -4708,22 +4716,22 @@
       <c r="C13" s="4">
         <v>55</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>0.01</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="53">
         <v>1.9E-2</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="53">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
@@ -4731,22 +4739,22 @@
       <c r="C14" s="4">
         <v>56</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>1.4E-2</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="53">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>0.05</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="53">
         <v>0.108</v>
       </c>
     </row>
@@ -4754,22 +4762,22 @@
       <c r="C15" s="4">
         <v>57</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="53">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="53">
         <v>3.9E-2</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="53">
         <v>0.05</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="53">
         <v>0.107</v>
       </c>
     </row>
@@ -4777,22 +4785,22 @@
       <c r="C16" s="4">
         <v>58</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="53">
         <v>2.3E-2</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="53">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="53">
         <v>0.06</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="53">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="53">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
@@ -4800,22 +4808,22 @@
       <c r="C17" s="4">
         <v>59</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="53">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="53">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <v>0.128</v>
       </c>
     </row>
@@ -4823,22 +4831,22 @@
       <c r="C18" s="4">
         <v>60</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="53">
         <v>3.1E-2</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="53">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <v>0.111</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="53">
         <v>0.13800000000000001</v>
       </c>
     </row>
@@ -4846,22 +4854,22 @@
       <c r="C19" s="4">
         <v>61</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="53">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="53">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="53">
         <v>0.1</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <v>0.121</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>0.16700000000000001</v>
       </c>
     </row>
@@ -4869,22 +4877,22 @@
       <c r="C20" s="4">
         <v>62</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="53">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="53">
         <v>0.104</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <v>0.16400000000000001</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="53">
         <v>0.214</v>
       </c>
     </row>
@@ -4892,22 +4900,22 @@
       <c r="C21" s="4">
         <v>63</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="53">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="53">
         <v>0.105</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="53">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="53">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="53">
         <v>0.192</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="53">
         <v>0.23699999999999999</v>
       </c>
     </row>
@@ -4915,22 +4923,22 @@
       <c r="C22" s="4">
         <v>64</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="53">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="53">
         <v>0.129</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="53">
         <v>0.158</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="53">
         <v>0.187</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="53">
         <v>0.24199999999999999</v>
       </c>
     </row>
@@ -4938,22 +4946,22 @@
       <c r="C23" s="4">
         <v>65</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="53">
         <v>0.108</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="53">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="53">
         <v>0.17299999999999999</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="53">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="53">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="53">
         <v>0.3</v>
       </c>
     </row>
@@ -4961,22 +4969,22 @@
       <c r="C24" s="4">
         <v>66</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="53">
         <v>0.13200000000000001</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="53">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="53">
         <v>0.21199999999999999</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="53">
         <v>0.252</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="53">
         <v>0.29199999999999998</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="53">
         <v>0.36599999999999999</v>
       </c>
     </row>
@@ -4984,22 +4992,22 @@
       <c r="C25" s="4">
         <v>67</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="53">
         <v>0.13200000000000001</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="53">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="53">
         <v>0.21199999999999999</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="53">
         <v>0.252</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="53">
         <v>0.29199999999999998</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="53">
         <v>0.36599999999999999</v>
       </c>
     </row>
@@ -5007,22 +5015,22 @@
       <c r="C26" s="4">
         <v>68</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="53">
         <v>0.12</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="53">
         <v>0.156</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="53">
         <v>0.193</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="53">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="53">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="53">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -5030,22 +5038,22 @@
       <c r="C27" s="4">
         <v>69</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="53">
         <v>0.12</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="53">
         <v>0.156</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="53">
         <v>0.193</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="53">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="53">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="53">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -5053,22 +5061,22 @@
       <c r="C28" s="4">
         <v>70</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28" s="54">
         <v>0.12</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="54">
         <v>0.156</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="54">
         <v>0.193</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="54">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="54">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="54">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -5149,370 +5157,370 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>50</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <v>0.05</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <v>0.05</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>0.05</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="52">
         <v>0.1</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="52">
         <v>0.155</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="52">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="58">
+      <c r="C9" s="56">
         <v>51</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <v>0.04</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>0.04</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <v>0.04</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>0.09</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="53">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="53">
         <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="58">
+      <c r="C10" s="56">
         <v>52</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="53">
         <v>0.04</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>0.04</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="53">
         <v>0.04</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="53">
         <v>0.115</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>53</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="53">
         <v>0.04</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="53">
         <v>0.04</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>0.04</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="53">
         <v>0.08</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="C12" s="58">
+      <c r="C12" s="56">
         <v>54</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="53">
         <v>0.04</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>0.04</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="53">
         <v>0.04</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="53">
         <v>0.09</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <v>0.14499999999999999</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="C13" s="58">
+      <c r="C13" s="56">
         <v>55</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="53">
         <v>0.12</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="53">
         <v>0.34</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="C14" s="58">
+      <c r="C14" s="56">
         <v>56</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>0.06</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="53">
         <v>0.06</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>0.06</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>0.11</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="53">
         <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="C15" s="58">
+      <c r="C15" s="56">
         <v>57</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="53">
         <v>0.06</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
         <v>0.06</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="53">
         <v>0.06</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="53">
         <v>0.11</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="53">
         <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="C16" s="58">
+      <c r="C16" s="56">
         <v>58</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="53">
         <v>0.08</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="53">
         <v>0.08</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="53">
         <v>0.08</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="53">
         <v>0.1</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="53">
         <v>0.185</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="58">
+      <c r="C17" s="56">
         <v>59</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="53">
         <v>0.09</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="53">
         <v>0.09</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="53">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="53">
         <v>0.13</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>0.185</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="58">
+      <c r="C18" s="56">
         <v>60</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="53">
         <v>0.15</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="53">
         <v>0.15</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>0.15</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <v>0.15</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <v>0.185</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="58">
+      <c r="C19" s="56">
         <v>61</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>0.12</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="53">
         <v>0.12</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="53">
         <v>0.12</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="53">
         <v>0.12</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <v>0.16</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="58">
+      <c r="C20" s="56">
         <v>62</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>0.15</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="53">
         <v>0.15</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="53">
         <v>0.15</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>0.15</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <v>0.2</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="58">
+      <c r="C21" s="56">
         <v>63</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="53">
         <v>0.15</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="53">
         <v>0.15</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="53">
         <v>0.15</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="53">
         <v>0.15</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="53">
         <v>0.2</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="53">
         <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="58">
+      <c r="C22" s="56">
         <v>64</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="53">
         <v>0.15</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="53">
         <v>0.15</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="53">
         <v>0.15</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="53">
         <v>0.15</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="53">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="53">
         <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="58">
+      <c r="C23" s="56">
         <v>65</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="53">
         <v>1</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="53">
         <v>1</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="53">
         <v>1</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="53">
         <v>1</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="53">
         <v>1</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="53">
         <v>1</v>
       </c>
     </row>
@@ -5593,370 +5601,370 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>50</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <v>0.05</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <v>0.05</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="52">
         <v>0.05</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="52">
         <v>0.05</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="52">
         <v>0.05</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="52">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="58">
+      <c r="C9" s="56">
         <v>51</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="53">
         <v>5.5E-2</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="53">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="58">
+      <c r="C10" s="56">
         <v>52</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="53">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="53">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>53</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="53">
         <v>0.111</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="C12" s="58">
+      <c r="C12" s="56">
         <v>54</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="53">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="C13" s="58">
+      <c r="C13" s="56">
         <v>55</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="53">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="53">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>0.12</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="53">
         <v>0.217</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="C14" s="58">
+      <c r="C14" s="56">
         <v>56</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="53">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>0.11</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="53">
         <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="C15" s="58">
+      <c r="C15" s="56">
         <v>57</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="53">
         <v>0.06</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
         <v>0.06</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="53">
         <v>0.06</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="53">
         <v>0.08</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <v>0.11799999999999999</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="53">
         <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="C16" s="58">
+      <c r="C16" s="56">
         <v>58</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="53">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="53">
         <v>0.124</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="53">
         <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="58">
+      <c r="C17" s="56">
         <v>59</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="53">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>0.126</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="58">
+      <c r="C18" s="56">
         <v>60</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="53">
         <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="58">
+      <c r="C19" s="56">
         <v>61</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>0.13</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="53">
         <v>0.13</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="53">
         <v>0.13</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="53">
         <v>0.13</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <v>0.13</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>0.153</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="58">
+      <c r="C20" s="56">
         <v>62</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="53">
         <v>0.191</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="58">
+      <c r="C21" s="56">
         <v>63</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="53">
         <v>0.191</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="58">
+      <c r="C22" s="56">
         <v>64</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="53">
         <v>0.13500000000000001</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="53">
         <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="58">
+      <c r="C23" s="56">
         <v>65</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="53">
         <v>1</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="53">
         <v>1</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="53">
         <v>1</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="53">
         <v>1</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="53">
         <v>1</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="53">
         <v>1</v>
       </c>
     </row>
@@ -5974,6 +5982,198 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="46">
+        <v>20</v>
+      </c>
+      <c r="D7" s="47">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="46">
+        <v>25</v>
+      </c>
+      <c r="D8" s="47">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="47">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="46">
+        <v>30</v>
+      </c>
+      <c r="D9" s="47">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E9" s="47">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" s="46">
+        <v>35</v>
+      </c>
+      <c r="D10" s="47">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="46">
+        <v>40</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="47">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="46">
+        <v>45</v>
+      </c>
+      <c r="D12" s="47">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E12" s="47">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="46">
+        <v>50</v>
+      </c>
+      <c r="D13" s="47">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E13" s="47">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="46">
+        <v>55</v>
+      </c>
+      <c r="D14" s="47">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E14" s="47">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="46">
+        <v>60</v>
+      </c>
+      <c r="D15" s="47">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E15" s="47">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="24">
+        <v>70</v>
+      </c>
+      <c r="D16" s="47">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="E16" s="47">
+        <v>8.4000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="24">
+        <v>80</v>
+      </c>
+      <c r="D17" s="47">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="E17" s="47">
+        <v>8.8000000000000003E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{7579FE3C-4244-4AB1-AAC3-001C2C379BE5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7265598-52E2-4DD4-A9BC-A23EC20053D0}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6012,7 +6212,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6025,322 +6225,130 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <v>20</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="47">
+        <v>1E-4</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="46">
+        <v>25</v>
+      </c>
+      <c r="D8" s="47">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="47">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="46">
+        <v>30</v>
+      </c>
+      <c r="D9" s="47">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E7" s="49">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="48">
-        <v>25</v>
-      </c>
-      <c r="D8" s="49">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E8" s="49">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="48">
-        <v>30</v>
-      </c>
-      <c r="D9" s="49">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E9" s="49">
-        <v>2.0000000000000001E-4</v>
+      <c r="E9" s="47">
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>35</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E10" s="47">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="46">
+        <v>40</v>
+      </c>
+      <c r="D11" s="47">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E10" s="49">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="48">
-        <v>40</v>
-      </c>
-      <c r="D11" s="49">
-        <v>1E-3</v>
-      </c>
-      <c r="E11" s="49">
-        <v>1.4E-3</v>
+      <c r="E11" s="47">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>45</v>
       </c>
-      <c r="D12" s="49">
-        <v>1.5E-3</v>
-      </c>
-      <c r="E12" s="49">
-        <v>1.9E-3</v>
+      <c r="D12" s="47">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E12" s="47">
+        <v>1.41E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>50</v>
       </c>
-      <c r="D13" s="49">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="E13" s="49">
+      <c r="D13" s="47">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E13" s="47">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="46">
+        <v>55</v>
+      </c>
+      <c r="D14" s="47">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E14" s="47">
+        <v>4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="46">
+        <v>60</v>
+      </c>
+      <c r="D15" s="47">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="48">
-        <v>55</v>
-      </c>
-      <c r="D14" s="49">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="E14" s="49">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="48">
-        <v>60</v>
-      </c>
-      <c r="D15" s="49">
-        <v>1.5E-3</v>
-      </c>
-      <c r="E15" s="49">
-        <v>1.1000000000000001E-3</v>
+      <c r="E15" s="47">
+        <v>6.0199999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" s="24">
         <v>70</v>
       </c>
-      <c r="D16" s="49">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="E16" s="49">
-        <v>8.4000000000000003E-4</v>
+      <c r="D16" s="47">
+        <v>2E-3</v>
+      </c>
+      <c r="E16" s="47">
+        <v>8.5489999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="24">
         <v>80</v>
       </c>
-      <c r="D17" s="49">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="E17" s="49">
-        <v>8.8000000000000003E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{7579FE3C-4244-4AB1-AAC3-001C2C379BE5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7265598-52E2-4DD4-A9BC-A23EC20053D0}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="48">
-        <v>20</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1E-4</v>
-      </c>
-      <c r="E7" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="48">
-        <v>25</v>
-      </c>
-      <c r="D8" s="49">
-        <v>1E-4</v>
-      </c>
-      <c r="E8" s="49">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="48">
-        <v>30</v>
-      </c>
-      <c r="D9" s="49">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E9" s="49">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" s="48">
-        <v>35</v>
-      </c>
-      <c r="D10" s="49">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E10" s="49">
-        <v>7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="48">
-        <v>40</v>
-      </c>
-      <c r="D11" s="49">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E11" s="49">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="48">
-        <v>45</v>
-      </c>
-      <c r="D12" s="49">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E12" s="49">
-        <v>1.41E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="48">
-        <v>50</v>
-      </c>
-      <c r="D13" s="49">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="E13" s="49">
-        <v>1.8499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="48">
-        <v>55</v>
-      </c>
-      <c r="D14" s="49">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="E14" s="49">
-        <v>4.7899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="48">
-        <v>60</v>
-      </c>
-      <c r="D15" s="49">
+      <c r="D17" s="47">
         <v>2E-3</v>
       </c>
-      <c r="E15" s="49">
-        <v>6.0199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" s="24">
-        <v>70</v>
-      </c>
-      <c r="D16" s="49">
-        <v>2E-3</v>
-      </c>
-      <c r="E16" s="49">
-        <v>8.5489999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="24">
-        <v>80</v>
-      </c>
-      <c r="D17" s="49">
-        <v>2E-3</v>
-      </c>
-      <c r="E17" s="49">
+      <c r="E17" s="47">
         <v>0.11609999999999999</v>
       </c>
     </row>
@@ -6357,8 +6365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4469DA9-DF0A-4BB8-ABB9-AF675133C5D4}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6400,11 +6408,11 @@
         <v>4</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="25"/>
@@ -6434,278 +6442,278 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>0</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <v>0.17419999999999999</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="45">
         <v>0.16739999999999999</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="45">
         <v>0.16059999999999999</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="45">
         <v>0.1537</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="45">
         <v>0.14680000000000001</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="45">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <v>1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>0.1545</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="47">
         <v>0.1477</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="47">
         <v>0.1409</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="47">
         <v>0.13389999999999999</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="47">
         <v>0.12709999999999999</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="47">
         <v>0.1203</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>2</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>0.1348</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <v>0.128</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47">
         <v>0.1212</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <v>0.1142</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="47">
         <v>0.1074</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="47">
         <v>0.10059999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>3</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>0.11509999999999999</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>0.10829999999999999</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <v>0.10150000000000001</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="47">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="47">
         <v>8.77E-2</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="47">
         <v>8.09E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <v>4</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="47">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="47">
         <v>6.1199999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>5</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <v>2.12E-2</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="47">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="47">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="47">
         <v>1.55E-2</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="47">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="47">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>10</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="47">
         <v>1.38E-2</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="47">
         <v>1.21E-2</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="47">
         <v>1.04E-2</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="47">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="47">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="47">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <v>15</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="47">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="47">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="47">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="47">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="47">
         <v>2.3E-3</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="47">
         <v>1.4E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="C15" s="48">
+      <c r="C15" s="46">
         <v>20</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="47">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="47">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="47">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="47">
         <v>1E-4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="48">
+      <c r="C16" s="46">
         <v>25</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="47">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="47">
         <v>1E-4</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="47">
         <v>1E-4</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="47">
         <v>1E-4</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="48">
+      <c r="C17" s="46">
         <v>30</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="47">
         <v>1E-4</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <v>1E-4</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="47">
         <v>1E-4</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="47">
         <v>1E-4</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="47">
         <v>1E-4</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="48">
+      <c r="C18" s="46">
         <v>35</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="47">
         <v>1E-4</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="47">
         <v>1E-4</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="47">
         <v>1E-4</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="47">
         <v>1E-4</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="47">
         <v>1E-4</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="47">
         <v>1E-4</v>
       </c>
     </row>
@@ -6726,10 +6734,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -6774,102 +6785,102 @@
         <v>23</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>0</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <v>0.1013</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <v>1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>6.3600000000000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>2</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>3</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>2.58E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <v>4</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>5</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <v>8.6E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>10</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="47">
         <v>5.3E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <v>15</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="47">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="C15" s="48">
+      <c r="C15" s="46">
         <v>20</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="48">
+      <c r="C16" s="46">
         <v>25</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="48">
+      <c r="C17" s="46">
         <v>30</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="48">
+      <c r="C18" s="46">
         <v>35</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="47">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6925,11 +6936,11 @@
       <c r="C5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="J5" t="s">
         <v>59</v>
       </c>
@@ -6955,142 +6966,142 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>5</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="45">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="45">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="45">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="45">
         <v>3.44E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <v>10</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="47">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="47">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="47">
         <v>2.63E-2</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="47">
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>15</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="47">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>20</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <v>1.09E-2</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="47">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="47">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <v>25</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <v>1.4E-3</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="47">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>30</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <v>1.5E-3</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="47">
         <v>1.5E-3</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="47">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="47">
         <v>0</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>35</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="47">
         <v>0</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="47">
         <v>0</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="47">
         <v>0</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="47">
         <v>0</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="47">
         <v>0</v>
       </c>
     </row>
